--- a/Testdaten_Parabel.xlsx
+++ b/Testdaten_Parabel.xlsx
@@ -1,49 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53f938af37a4b6da/Desktop/C^N Dateien/Projektmappe_Klassenbibliotheken/MatrixFFN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53f938af37a4b6da/C^N local für GitHub/MatrixFFN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{B38BD47A-2E15-45F2-925E-AC033D66E30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{370360A5-2674-44C7-93D0-3CA35CCB188C}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{B38BD47A-2E15-45F2-925E-AC033D66E30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F1E8891-C9B6-4479-8631-A6E6197F1814}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17376" windowHeight="11196" xr2:uid="{ADC63DB0-8869-46A9-920D-B4979D3E3E40}"/>
+    <workbookView xWindow="1020" yWindow="2220" windowWidth="14550" windowHeight="10890" xr2:uid="{ADC63DB0-8869-46A9-920D-B4979D3E3E40}"/>
   </bookViews>
   <sheets>
-    <sheet name="Parabel_mit_Header" sheetId="2" r:id="rId1"/>
+    <sheet name="Parabel" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77,8 +59,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -417,253 +405,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89BE82A-2D79-4B6B-97C6-2985FD5C07C0}">
-  <dimension ref="A1:C22"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C22"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="B1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="C1" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>-9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>-8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>-7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>-6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>-5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>-4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>-10</v>
-      </c>
-      <c r="B2">
-        <v>-10</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>-9</v>
-      </c>
-      <c r="B3">
-        <v>-9</v>
-      </c>
-      <c r="C3">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-8</v>
-      </c>
-      <c r="B4">
-        <v>-8</v>
-      </c>
-      <c r="C4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-7</v>
-      </c>
-      <c r="B5">
-        <v>-7</v>
-      </c>
-      <c r="C5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>-6</v>
-      </c>
-      <c r="B6">
-        <v>-6</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-5</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>-4</v>
-      </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>-3</v>
-      </c>
-      <c r="B9">
-        <v>-3</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>-2</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>-1</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B22">
+      <c r="B21" s="2">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C21" s="2">
         <v>100</v>
       </c>
     </row>
